--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC125-EQUIPO CERCLAJE # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC125-EQUIPO CERCLAJE # 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C6BF5-5583-4D4B-AB84-5D76B5EC7570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{49D4DB6E-BBA0-4A56-8516-D27064B42416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12795" yWindow="225" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -435,18 +424,21 @@
   <si>
     <t xml:space="preserve">METRO DE ALAMBRE QUIRURGICO *0.7mm ACERO </t>
   </si>
+  <si>
+    <t xml:space="preserve">N2306000620 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -834,31 +826,31 @@
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -925,7 +917,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,7 +944,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,7 +1039,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1061,10 +1053,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,9 +1200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1248,7 +1240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1354,7 +1346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1496,7 +1488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1510,7 +1502,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1584,7 @@
       <c r="B7" s="25"/>
       <c r="C7" s="26">
         <f ca="1">NOW()</f>
-        <v>45394.652092245371</v>
+        <v>45397.88185046296</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>1</v>
@@ -1900,8 +1892,8 @@
       <c r="A27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="58">
-        <v>2306000620</v>
+      <c r="B27" s="58" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>59</v>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC125-EQUIPO CERCLAJE # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P15NEC125-EQUIPO CERCLAJE # 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{49D4DB6E-BBA0-4A56-8516-D27064B42416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27606AD2-DD25-46A7-B708-3C48999E0648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="225" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="1020" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>DESCARGO</t>
   </si>
   <si>
-    <t>210936961</t>
-  </si>
-  <si>
     <t>184.305</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">N2306000620 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2306000613 </t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1502,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1528,10 +1528,10 @@
       <c r="A2" s="44"/>
       <c r="B2" s="20"/>
       <c r="C2" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="84" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="85"/>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="83"/>
       <c r="D3" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="22"/>
     </row>
@@ -1548,10 +1548,10 @@
       <c r="A4" s="45"/>
       <c r="B4" s="21"/>
       <c r="C4" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="89"/>
     </row>
@@ -1560,7 +1560,7 @@
       <c r="B5" s="23"/>
       <c r="C5" s="87"/>
       <c r="D5" s="90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="16"/>
@@ -1584,7 +1584,7 @@
       <c r="B7" s="25"/>
       <c r="C7" s="26">
         <f ca="1">NOW()</f>
-        <v>45397.88185046296</v>
+        <v>45401.636708101854</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>1</v>
@@ -1609,13 +1609,13 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1633,17 +1633,17 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>5</v>
@@ -1699,7 +1699,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
@@ -1745,13 +1745,13 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="36" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1769,11 +1769,11 @@
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="41"/>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -1808,23 +1808,23 @@
         <v>14</v>
       </c>
       <c r="F23" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="70" t="s">
         <v>83</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>84</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="58">
         <v>210127379</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="60">
         <v>5</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="58">
         <v>201226140</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="60">
         <v>5</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="58">
         <v>2306000619</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="60">
         <v>5</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="60">
         <v>5</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="60">
         <v>5</v>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="58">
         <v>2306000622</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="60">
         <v>5</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="30" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="58">
         <v>210127384</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="60">
         <v>5</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="32" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="64" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>94</v>
       </c>
       <c r="D32" s="65">
         <v>1</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="33" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="66" t="s">
-        <v>92</v>
-      </c>
       <c r="C33" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="65">
         <v>1</v>
@@ -2048,13 +2048,13 @@
     </row>
     <row r="34" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="68">
         <v>1</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="35" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="68">
         <v>1</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="66" t="s">
-        <v>17</v>
-      </c>
       <c r="C36" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="68">
         <v>1</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="68">
         <v>1</v>
@@ -2161,7 +2161,7 @@
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
       <c r="F39" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="78">
         <f>SUM(G8:G38)</f>
@@ -2175,7 +2175,7 @@
       <c r="D40" s="74"/>
       <c r="E40" s="75"/>
       <c r="F40" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="78">
         <f>+G39*0.12</f>
@@ -2189,7 +2189,7 @@
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
       <c r="F41" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="78">
         <f>+G39+G40</f>
@@ -2213,15 +2213,15 @@
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,34 +2280,34 @@
     </row>
     <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>66</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="52"/>
       <c r="C56" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="52"/>
       <c r="C57" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="52"/>
       <c r="C58" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="52"/>
       <c r="C59" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2316,22 +2316,22 @@
     </row>
     <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="55"/>
       <c r="C62" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="55"/>
       <c r="C63" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
     </row>
     <row r="69" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="53"/>
     </row>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="72" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="53"/>
     </row>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="75" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="53"/>
     </row>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="78" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="53"/>
     </row>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="81" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="53"/>
     </row>
